--- a/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>121,74%</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>107,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>114,57%</t>
+          <t>104,47%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>119,78%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>92,5%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 15,89</t>
+          <t>3,26; 18,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 13,65</t>
+          <t>1,57; 14,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 14,61</t>
+          <t>3,54; 17,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,28; 231,11</t>
+          <t>2,82; 20,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,51; 214,43</t>
+          <t>26,77; 302,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,15; 229,44</t>
+          <t>10,85; 290,89</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27,97; 358,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 230,48</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>128,11%</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>135,73%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>248,12%</t>
+          <t>57,47%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>136,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57,65%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 15,28</t>
+          <t>-3,51; 13,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 18,73</t>
+          <t>-1,99; 15,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 25,79</t>
+          <t>5,41; 23,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 285,35</t>
+          <t>-1,45; 23,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 297,94</t>
+          <t>-24,51; 193,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>107,48; 485,17</t>
+          <t>-14,73; 187,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34,14; 359,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 205,68</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-17,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>128,76%</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>179,28%</t>
+          <t>-31,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>50,72%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-55,03%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-25,84%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 21,09</t>
+          <t>-23,62; 11,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 20,61</t>
+          <t>-11,16; 19,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 14,96</t>
+          <t>-58,29; 9,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 648,63</t>
+          <t>-46,66; 21,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 992,45</t>
+          <t>-87,26; 379,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,63; 154,91</t>
+          <t>-72,27; 974,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 118,25</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-85,04; 430,04</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>125,62%</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>115,89%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>120,59%</t>
+          <t>75,77%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72,82%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,1</t>
+          <t>0,93; 11,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,48</t>
+          <t>2,11; 12,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 16,04</t>
+          <t>1,01; 14,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,69; 200,41</t>
+          <t>0,11; 16,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,69; 189,43</t>
+          <t>5,31; 141,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,05; 212,58</t>
+          <t>15,96; 167,51</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 162,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 138,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,35</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,73</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>107,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>104,47%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>119,78%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>92,5%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.19385080416365</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.12767327113111</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.330700453698975</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.29188570934781</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.11939185994076</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.003342956399615</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.206447681890497</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8759180674336124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 18,11</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 14,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 17,22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 20,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>26,77; 302,66</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 290,89</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>27,97; 358,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>16,34; 230,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.455076101308806</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.9884186343555087</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.533727165795132</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.57538875038688</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.2760944611480001</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.09125777085827366</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2831381727014022</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1293673569101764</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.74330180387367</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.51774921114957</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.91580397939813</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.68078851081827</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.051938361658602</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.888904691716112</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.592709237912051</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.299131128770116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,07</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>38,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>57,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>136,13%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>57,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 13,3</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 15,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 23,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 23,66</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-24,51; 193,42</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-14,73; 187,32</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>34,14; 359,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 205,68</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.523246892474277</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.376301960677672</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.53201995824273</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.28395703337408</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.209332292525115</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6486228028005055</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.463497930792219</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5567070389168117</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-17,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,86</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-31,9%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>50,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-55,03%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-25,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.117681583186616</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.54131276494441</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.596753008333544</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.702161022641767</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4250686252554821</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1242888829019051</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.3877227344609114</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1111114046377448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-23,62; 11,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 19,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-58,29; 9,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-46,66; 21,38</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-87,26; 379,1</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-72,27; 974,0</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 118,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-85,04; 430,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.22303558625836</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.05194113486344</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>24.09469437927162</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.65589853268176</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.610660892961987</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.109559359665538</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.010764955624189</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.915516802617744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,4</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>59,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>75,77%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>72,82%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>53,28%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.941299680008554</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.754852107493704</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-15.33188596498025</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.913679542559084</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2351862600627315</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5454446168628974</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4852468576913851</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2867698974657472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 11,84</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 12,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 14,16</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 16,99</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 141,7</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>15,96; 167,51</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 162,97</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 138,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.86423417817674</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.00566654033609</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-56.26033357800102</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-47.15035069115326</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8587383821115384</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7458790535773038</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8571363017032384</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.29087795940313</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.87370851357166</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.93716587204066</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.64744027735974</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4.3072794672489</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>8.248612060614512</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.547739349040652</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.758643660209152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.772552639953236</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.395401182022411</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.750168598088361</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.775247963020196</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5406678500773823</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7732119397256924</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.778699322392339</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4921436495553164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.03291220708318876</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.338400151998337</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.264477996981606</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.396386924864251</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.01409322175246176</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1409393949497721</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.01754111038552988</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0989718135421357</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.88089769506376</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.36378105117868</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.42331009404809</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.60909928134707</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.410816261144394</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.732189891774933</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.674862530237777</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.271947639291197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
